--- a/Analysis/calibration/factors_calibration/minions/30_repetitions_arrival_time_20sec_boss_service7/calibration_minion_response_time_arrival20sec.xlsx
+++ b/Analysis/calibration/factors_calibration/minions/30_repetitions_arrival_time_20sec_boss_service7/calibration_minion_response_time_arrival20sec.xlsx
@@ -383,7 +383,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -423,10 +423,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.113676182623931"/>
-          <c:y val="0.115989678708174"/>
-          <c:w val="0.857260641038854"/>
-          <c:h val="0.667970700849009"/>
+          <c:x val="0.113680848871948"/>
+          <c:y val="0.115948060595971"/>
+          <c:w val="0.857216441743072"/>
+          <c:h val="0.667887464624605"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1058,11 +1058,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78263571"/>
-        <c:axId val="65637407"/>
+        <c:axId val="63073794"/>
+        <c:axId val="61935084"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78263571"/>
+        <c:axId val="63073794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1120,13 +1120,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65637407"/>
+        <c:crossAx val="61935084"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65637407"/>
+        <c:axId val="61935084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="420"/>
@@ -1193,7 +1193,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78263571"/>
+        <c:crossAx val="63073794"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1252,9 +1252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>426960</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1262,8 +1262,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="38647440" y="2595240"/>
-        <a:ext cx="6986160" cy="4325040"/>
+        <a:off x="38656080" y="2595240"/>
+        <a:ext cx="6988680" cy="4324680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1283,11 +1283,11 @@
   </sheetPr>
   <dimension ref="B1:AB320"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB48" activeCellId="0" sqref="AB48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA38" activeCellId="0" sqref="AA38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.96"/>
